--- a/StructureDefinition-ext-R5-ConceptMap.gro.ele.tar.property.xlsx
+++ b/StructureDefinition-ext-R5-ConceptMap.gro.ele.tar.property.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ConceptMap.group.element.target.property` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ConceptMap.group.element.target.property` is mapped to FHIR R4 structure `ConceptMap`, but has no target element specified.</t>
+Element `ConceptMap.group.element.target.property` is will have a context of ConceptMap.group.element.target based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ConceptMap.group.element.target</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `ConceptMap.group.element.target.property.code` is part of an existing definition because parent element `ConceptMap.group.element.target.property` requires a cross-version extension.
-Element `ConceptMap.group.element.target.property.code` is mapped to FHIR R4 structure `ConceptMap`, but has no target element specified.</t>
+Element `ConceptMap.group.element.target.property.code` is will have a context of ConceptMap.group.element.target based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -425,7 +425,7 @@
   </si>
   <si>
     <t>Element `ConceptMap.group.element.target.property.value[x]` is part of an existing definition because parent element `ConceptMap.group.element.target.property` requires a cross-version extension.
-Element `ConceptMap.group.element.target.property.value[x]` is mapped to FHIR R4 structure `ConceptMap`, but has no target element specified.</t>
+Element `ConceptMap.group.element.target.property.value[x]` is will have a context of ConceptMap.group.element.target based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -791,7 +791,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="161.78125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="169.62890625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
